--- a/DymonProject/DymonProject/SwapCurveFA.xlsx
+++ b/DymonProject/DymonProject/SwapCurveFA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="12405" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>EUR/DEP/1D</t>
   </si>
@@ -182,19 +182,105 @@
   </si>
   <si>
     <t>JPY/IRS/F-LI/30Y</t>
+  </si>
+  <si>
+    <t>Mty/Pay</t>
+  </si>
+  <si>
+    <t>Market Rate</t>
+  </si>
+  <si>
+    <t>Spot Rate</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>Deposit Rate</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Swap Rate</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>02/28/2019</t>
+  </si>
+  <si>
+    <t>02/28/2020</t>
+  </si>
+  <si>
+    <t>02/26/2021</t>
+  </si>
+  <si>
+    <t>02/28/2022</t>
+  </si>
+  <si>
+    <t>02/28/2023</t>
+  </si>
+  <si>
+    <t>02/29/2028</t>
+  </si>
+  <si>
+    <t>02/28/2033</t>
+  </si>
+  <si>
+    <t>02/26/2038</t>
+  </si>
+  <si>
+    <t>02/27/2043</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,9 +303,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,19 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -549,8 +638,23 @@
       <c r="F1">
         <v>99.999499999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -566,8 +670,21 @@
       <c r="F2">
         <v>99.998800000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -583,8 +700,23 @@
       <c r="F3">
         <v>99.995400000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.99995100000000003</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -600,8 +732,23 @@
       <c r="F4">
         <v>99.991500000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.99984399999999996</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -617,8 +764,23 @@
       <c r="F5">
         <v>99.982900000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.99923399999999996</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -634,8 +796,23 @@
       <c r="F6">
         <v>99.958299999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.48577999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.48577999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.99753700000000001</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -651,8 +828,23 @@
       <c r="F7">
         <v>99.927999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.99455000000000005</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -668,8 +860,23 @@
       <c r="F8">
         <v>99.913300000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.99668999999999996</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -685,8 +892,23 @@
       <c r="F9">
         <v>99.832300000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.39378000000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.992174</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -702,8 +924,23 @@
       <c r="F10">
         <v>99.747500000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.51112000000000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.98478900000000003</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -719,8 +956,23 @@
       <c r="F11">
         <v>99.656599999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.70006000000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.97243400000000002</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -736,8 +988,23 @@
       <c r="F12">
         <v>99.5565</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.94325999999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.95403800000000005</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -753,8 +1020,23 @@
       <c r="F13">
         <v>99.221299999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.1828000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.2007099999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.93069100000000005</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -770,8 +1052,23 @@
       <c r="F14">
         <v>98.484499999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1.4449000000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.90413299999999996</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -787,8 +1084,23 @@
       <c r="F15">
         <v>97.239699999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.623</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.6647700000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.87586900000000001</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -804,8 +1116,23 @@
       <c r="F16">
         <v>95.406700000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.8075000000000001</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.8641700000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.84620099999999998</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -821,8 +1148,23 @@
       <c r="F17">
         <v>93.074299999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.9704999999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.0430700000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.81605700000000003</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -838,8 +1180,23 @@
       <c r="F18">
         <v>90.433700000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.5154999999999998</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2.6654800000000001</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.67216200000000004</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -855,24 +1212,69 @@
       <c r="F19">
         <v>87.595799999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.7507999999999999</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.9413999999999998</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.557666</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>44620</v>
       </c>
       <c r="F20">
         <v>84.644400000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.8641000000000001</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3.0713699999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.466808</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>44985</v>
       </c>
       <c r="F21">
         <v>81.645600000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3.1485099999999999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.39175900000000002</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>46812</v>
       </c>
@@ -880,7 +1282,7 @@
         <v>67.262799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <v>48638</v>
       </c>
@@ -888,7 +1290,7 @@
         <v>55.834000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>50462</v>
       </c>
@@ -896,7 +1298,7 @@
         <v>46.7348</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <v>52289</v>
       </c>
@@ -914,7 +1316,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,10 +1741,13 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A2" sqref="A2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1682,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
